--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 26 de abril de 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800F07C9-E371-4787-929F-035689DDEB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Source:</t>
   </si>
@@ -147,12 +158,18 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Comment (Brazil):</t>
+  </si>
+  <si>
+    <t>Hydro is not a peaker type, but can provide flexibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,6 +309,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,24 +553,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,117 +580,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -647,7 +712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -655,25 +720,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -697,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -705,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -713,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -721,15 +786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -737,15 +802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -753,16 +818,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -771,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -780,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -789,13 +854,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -812,25 +877,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -838,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -846,15 +911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -862,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -870,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -878,15 +943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -894,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -902,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -910,16 +975,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -928,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -937,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -946,13 +1011,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
